--- a/examples/Communication-MMO-Examples/Config/Excel/Server/ServerConfig.xlsx
+++ b/examples/Communication-MMO-Examples/Config/Excel/Server/ServerConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1217,7 +1217,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
